--- a/taiex_mid100_stock_data.xlsx
+++ b/taiex_mid100_stock_data.xlsx
@@ -466,7 +466,7 @@
         <v>1.24</v>
       </c>
       <c r="D2" t="n">
-        <v>17.117672</v>
+        <v>17.240673</v>
       </c>
       <c r="E2" t="n">
         <v>0.25332</v>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.73</v>
+        <v>10.74</v>
       </c>
       <c r="C3" t="n">
         <v>0.616</v>
       </c>
       <c r="D3" t="n">
-        <v>12.099644</v>
+        <v>11.814946</v>
       </c>
       <c r="E3" t="n">
         <v>0.100839995</v>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.55</v>
+        <v>57.6</v>
       </c>
       <c r="C4" t="n">
         <v>1.144</v>
       </c>
       <c r="D4" t="n">
-        <v>16.669052</v>
+        <v>16.812134</v>
       </c>
       <c r="E4" t="n">
         <v>0.25763</v>
@@ -532,7 +532,7 @@
         <v>0.532</v>
       </c>
       <c r="D5" t="n">
-        <v>21.080248</v>
+        <v>20.80247</v>
       </c>
       <c r="E5" t="n">
         <v>0.015310001</v>
@@ -554,7 +554,7 @@
         <v>0.647</v>
       </c>
       <c r="D6" t="n">
-        <v>11.348089</v>
+        <v>11.146882</v>
       </c>
       <c r="E6" t="n">
         <v>0.072909996</v>
@@ -576,7 +576,7 @@
         <v>0.73</v>
       </c>
       <c r="D7" t="n">
-        <v>11.748032</v>
+        <v>11.480315</v>
       </c>
       <c r="E7" t="n">
         <v>0.09357</v>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.68</v>
+        <v>153.72</v>
       </c>
       <c r="C8" t="n">
         <v>0.919</v>
       </c>
       <c r="D8" t="n">
-        <v>13.796581</v>
+        <v>13.173511</v>
       </c>
       <c r="E8" t="n">
         <v>0.12922</v>
@@ -620,7 +620,7 @@
         <v>1.18</v>
       </c>
       <c r="D9" t="n">
-        <v>11.503267</v>
+        <v>11.742919</v>
       </c>
       <c r="E9" t="n">
         <v>0.15123</v>
@@ -642,7 +642,7 @@
         <v>0.386</v>
       </c>
       <c r="D10" t="n">
-        <v>14.301075</v>
+        <v>14.408602</v>
       </c>
       <c r="E10" t="n">
         <v>0.07664</v>
@@ -664,7 +664,7 @@
         <v>0.475</v>
       </c>
       <c r="D11" t="n">
-        <v>17.457266</v>
+        <v>17.350428</v>
       </c>
       <c r="E11" t="n">
         <v>0.10461</v>
@@ -686,7 +686,7 @@
         <v>0.649</v>
       </c>
       <c r="D12" t="n">
-        <v>11.943573</v>
+        <v>11.833856</v>
       </c>
       <c r="E12" t="n">
         <v>0.13418001</v>
@@ -708,7 +708,7 @@
         <v>0.736</v>
       </c>
       <c r="D13" t="n">
-        <v>13.165323</v>
+        <v>12.923387</v>
       </c>
       <c r="E13" t="n">
         <v>0.09741</v>
@@ -730,7 +730,7 @@
         <v>0.429</v>
       </c>
       <c r="D14" t="n">
-        <v>16.049383</v>
+        <v>15.771605</v>
       </c>
       <c r="E14" t="n">
         <v>0.11012</v>
@@ -752,7 +752,7 @@
         <v>0.749</v>
       </c>
       <c r="D15" t="n">
-        <v>27.22826</v>
+        <v>27.065216</v>
       </c>
       <c r="E15" t="n">
         <v>0.01351</v>
@@ -774,7 +774,7 @@
         <v>0.637</v>
       </c>
       <c r="D16" t="n">
-        <v>18.28479</v>
+        <v>18.945578</v>
       </c>
       <c r="E16" t="n">
         <v>0.02027</v>
@@ -796,7 +796,7 @@
         <v>0.412</v>
       </c>
       <c r="D17" t="n">
-        <v>17.103659</v>
+        <v>17.286585</v>
       </c>
       <c r="E17" t="n">
         <v>0.09506000000000001</v>
@@ -818,7 +818,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>10.140845</v>
+        <v>9.964788</v>
       </c>
       <c r="E18" t="n">
         <v>0.08033</v>
@@ -840,7 +840,7 @@
         <v>0.455</v>
       </c>
       <c r="D19" t="n">
-        <v>18.35443</v>
+        <v>18.259493</v>
       </c>
       <c r="E19" t="n">
         <v>0.09747</v>
@@ -862,7 +862,7 @@
         <v>0.361</v>
       </c>
       <c r="D20" t="n">
-        <v>19.91453</v>
+        <v>19.80057</v>
       </c>
       <c r="E20" t="n">
         <v>0.0696</v>
@@ -884,7 +884,7 @@
         <v>0.904</v>
       </c>
       <c r="D21" t="n">
-        <v>19.763092</v>
+        <v>19.758577</v>
       </c>
       <c r="E21" t="n">
         <v>0.21834</v>
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.01</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C22" t="n">
         <v>1.093</v>
       </c>
       <c r="D22" t="n">
-        <v>12.08134</v>
+        <v>12.280702</v>
       </c>
       <c r="E22" t="n">
         <v>0.111049995</v>
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.91</v>
+        <v>30.92</v>
       </c>
       <c r="C23" t="n">
         <v>0.5590000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>14.397322</v>
+        <v>13.643973</v>
       </c>
       <c r="E23" t="n">
         <v>0.09896000000000001</v>
@@ -950,7 +950,7 @@
         <v>0.255</v>
       </c>
       <c r="D24" t="n">
-        <v>18.418604</v>
+        <v>18.333332</v>
       </c>
       <c r="E24" t="n">
         <v>0.1517</v>
@@ -972,7 +972,7 @@
         <v>0.06</v>
       </c>
       <c r="D25" t="n">
-        <v>24.80315</v>
+        <v>24.901575</v>
       </c>
       <c r="E25" t="n">
         <v>0.09353</v>
@@ -994,7 +994,7 @@
         <v>1.565</v>
       </c>
       <c r="D26" t="n">
-        <v>20.37754</v>
+        <v>20.53307</v>
       </c>
       <c r="E26" t="n">
         <v>0.09508</v>
@@ -1016,7 +1016,7 @@
         <v>0.547</v>
       </c>
       <c r="D27" t="n">
-        <v>23.682007</v>
+        <v>23.556484</v>
       </c>
       <c r="E27" t="n">
         <v>0.02772</v>
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.35</v>
+        <v>12.37</v>
       </c>
       <c r="C28" t="n">
         <v>1.139</v>
       </c>
       <c r="D28" t="n">
-        <v>20.14366</v>
+        <v>19.893816</v>
       </c>
       <c r="E28" t="n">
         <v>0.15441</v>
@@ -1060,7 +1060,7 @@
         <v>0.443</v>
       </c>
       <c r="D29" t="n">
-        <v>13.538012</v>
+        <v>13.450292</v>
       </c>
       <c r="E29" t="n">
         <v>0.11545999</v>
@@ -1082,7 +1082,7 @@
         <v>0.426</v>
       </c>
       <c r="D30" t="n">
-        <v>17.093597</v>
+        <v>16.945814</v>
       </c>
       <c r="E30" t="n">
         <v>0.05396</v>
@@ -1104,7 +1104,7 @@
         <v>1.422</v>
       </c>
       <c r="D31" t="n">
-        <v>1750</v>
+        <v>1720.0001</v>
       </c>
       <c r="E31" t="n">
         <v>0.00434</v>
@@ -1126,7 +1126,7 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>22.380178</v>
+        <v>22.47557</v>
       </c>
       <c r="E32" t="n">
         <v>0.25333</v>
@@ -1142,13 +1142,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41.79</v>
+        <v>41.78</v>
       </c>
       <c r="C33" t="n">
         <v>1.592</v>
       </c>
       <c r="D33" t="n">
-        <v>11.047816</v>
+        <v>10.875195</v>
       </c>
       <c r="E33" t="n">
         <v>0.13898</v>
@@ -1164,13 +1164,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.49</v>
+        <v>42.45</v>
       </c>
       <c r="C34" t="n">
         <v>0.838</v>
       </c>
       <c r="D34" t="n">
-        <v>13.330484</v>
+        <v>13.138218</v>
       </c>
       <c r="E34" t="n">
         <v>0.31234</v>
@@ -1192,7 +1192,7 @@
         <v>0.753</v>
       </c>
       <c r="D35" t="n">
-        <v>21.78733</v>
+        <v>21.832579</v>
       </c>
       <c r="E35" t="n">
         <v>0.08621999599999999</v>
@@ -1214,7 +1214,7 @@
         <v>1.269</v>
       </c>
       <c r="D36" t="n">
-        <v>23.81579</v>
+        <v>23.552631</v>
       </c>
       <c r="E36" t="n">
         <v>-0.06415999999999999</v>
@@ -1236,7 +1236,7 @@
         <v>1.667</v>
       </c>
       <c r="D37" t="n">
-        <v>136.53847</v>
+        <v>51.36691</v>
       </c>
       <c r="E37" t="n">
         <v>0.034730002</v>
@@ -1258,7 +1258,7 @@
         <v>1.638</v>
       </c>
       <c r="D38" t="n">
-        <v>34.7451</v>
+        <v>32.48062</v>
       </c>
       <c r="E38" t="n">
         <v>0.01709</v>
@@ -1273,6 +1273,31 @@
           <t>3697.TW</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1287,7 +1312,7 @@
         <v>0.648</v>
       </c>
       <c r="D40" t="n">
-        <v>17.470984</v>
+        <v>17.080557</v>
       </c>
       <c r="E40" t="n">
         <v>0.27445</v>
@@ -1309,7 +1334,7 @@
         <v>0.555</v>
       </c>
       <c r="D41" t="n">
-        <v>20.925926</v>
+        <v>20.21212</v>
       </c>
       <c r="E41" t="n">
         <v>0.041929998</v>
@@ -1325,13 +1350,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>38.53</v>
+        <v>38.49</v>
       </c>
       <c r="C42" t="n">
         <v>1.071</v>
       </c>
       <c r="D42" t="n">
-        <v>14.477791</v>
+        <v>14.574314</v>
       </c>
       <c r="E42" t="n">
         <v>0.32799998</v>
@@ -1353,7 +1378,7 @@
         <v>0.879</v>
       </c>
       <c r="D43" t="n">
-        <v>12.933025</v>
+        <v>12.945915</v>
       </c>
       <c r="E43" t="n">
         <v>0.17141001</v>
@@ -1375,7 +1400,7 @@
         <v>0.874</v>
       </c>
       <c r="D44" t="n">
-        <v>12.863795</v>
+        <v>12.74738</v>
       </c>
       <c r="E44" t="n">
         <v>0.06111</v>
@@ -1390,6 +1415,31 @@
           <t>6180.TW</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1404,7 +1454,7 @@
         <v>1.068</v>
       </c>
       <c r="D46" t="n">
-        <v>24.884502</v>
+        <v>23.834524</v>
       </c>
       <c r="E46" t="n">
         <v>0.18011999</v>
@@ -1426,7 +1476,7 @@
         <v>0.855</v>
       </c>
       <c r="D47" t="n">
-        <v>17.609756</v>
+        <v>18.780489</v>
       </c>
       <c r="E47" t="n">
         <v>0.03066</v>
@@ -1441,6 +1491,31 @@
           <t>3474.TW</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1455,7 +1530,7 @@
         <v>-0.002</v>
       </c>
       <c r="D49" t="n">
-        <v>22.79452</v>
+        <v>22.87671</v>
       </c>
       <c r="E49" t="n">
         <v>0.14232999</v>
@@ -1471,13 +1546,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>20.19</v>
+        <v>20.18</v>
       </c>
       <c r="C50" t="n">
         <v>1.049</v>
       </c>
       <c r="D50" t="n">
-        <v>15.911138</v>
+        <v>15.881116</v>
       </c>
       <c r="E50" t="n">
         <v>0.21922001</v>
@@ -1493,13 +1568,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5.17</v>
+        <v>5.16</v>
       </c>
       <c r="C51" t="n">
         <v>1.52</v>
       </c>
       <c r="D51" t="n">
-        <v>16.56495</v>
+        <v>16.224579</v>
       </c>
       <c r="E51" t="n">
         <v>0.07468</v>
@@ -1521,7 +1596,7 @@
         <v>1.572</v>
       </c>
       <c r="D52" t="n">
-        <v>12.482993</v>
+        <v>12.380953</v>
       </c>
       <c r="E52" t="n">
         <v>0.10614</v>
@@ -1543,7 +1618,7 @@
         <v>0.272</v>
       </c>
       <c r="D53" t="n">
-        <v>15.614679</v>
+        <v>15.284405</v>
       </c>
       <c r="E53" t="n">
         <v>0.11663</v>
@@ -1558,6 +1633,31 @@
           <t>3293.TW</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1572,7 +1672,7 @@
         <v>0.806</v>
       </c>
       <c r="D55" t="n">
-        <v>-47.472527</v>
+        <v>-40.28302</v>
       </c>
       <c r="E55" t="n">
         <v>-0.14907</v>
@@ -1594,7 +1694,7 @@
         <v>1.099</v>
       </c>
       <c r="D56" t="n">
-        <v>37.59259</v>
+        <v>37.407406</v>
       </c>
       <c r="E56" t="n">
         <v>-0.10476</v>
@@ -1610,13 +1710,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>15.21</v>
+        <v>15.2</v>
       </c>
       <c r="C57" t="n">
         <v>0.79</v>
       </c>
       <c r="D57" t="n">
-        <v>24.215246</v>
+        <v>23.963005</v>
       </c>
       <c r="E57" t="n">
         <v>0.3321</v>
@@ -1638,7 +1738,7 @@
         <v>0.628</v>
       </c>
       <c r="D58" t="n">
-        <v>13.951396</v>
+        <v>13.8938055</v>
       </c>
       <c r="E58" t="n">
         <v>0.14958</v>
@@ -1660,7 +1760,7 @@
         <v>0.374</v>
       </c>
       <c r="D59" t="n">
-        <v>20.606436</v>
+        <v>20.610058</v>
       </c>
       <c r="E59" t="n">
         <v>0.34539002</v>
@@ -1682,7 +1782,7 @@
         <v>0.862</v>
       </c>
       <c r="D60" t="n">
-        <v>17.138365</v>
+        <v>16.8239</v>
       </c>
       <c r="E60" t="n">
         <v>0.15709</v>
@@ -1698,13 +1798,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>39.09</v>
+        <v>39.07</v>
       </c>
       <c r="C61" t="n">
         <v>0.972</v>
       </c>
       <c r="D61" t="n">
-        <v>21.345835</v>
+        <v>20.628792</v>
       </c>
       <c r="E61" t="n">
         <v>0.1277</v>
@@ -1726,7 +1826,7 @@
         <v>0.836</v>
       </c>
       <c r="D62" t="n">
-        <v>15.948963</v>
+        <v>15.566188</v>
       </c>
       <c r="E62" t="n">
         <v>0.07906000000000001</v>
@@ -1748,7 +1848,7 @@
         <v>0.846</v>
       </c>
       <c r="D63" t="n">
-        <v>24.099098</v>
+        <v>24.864864</v>
       </c>
       <c r="E63" t="n">
         <v>0.03644</v>
@@ -1770,7 +1870,7 @@
         <v>1.152</v>
       </c>
       <c r="D64" t="n">
-        <v>7.0707073</v>
+        <v>6.85719</v>
       </c>
       <c r="E64" t="n">
         <v>0.74744004</v>
@@ -1788,6 +1888,16 @@
       <c r="B65" t="n">
         <v>1.65</v>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
       <c r="E65" t="n">
         <v>0.11108</v>
       </c>
@@ -1804,8 +1914,13 @@
       <c r="B66" t="n">
         <v>11.46</v>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
       <c r="D66" t="n">
-        <v>12.371889</v>
+        <v>12.701318</v>
       </c>
       <c r="E66" t="n">
         <v>0.14667</v>
@@ -1820,6 +1935,31 @@
           <t>2823.TW</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1828,13 +1968,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>16.66</v>
+        <v>16.65</v>
       </c>
       <c r="C68" t="n">
         <v>1.021</v>
       </c>
       <c r="D68" t="n">
-        <v>18.063799</v>
+        <v>17.246483</v>
       </c>
       <c r="E68" t="n">
         <v>0.25742</v>
@@ -1856,7 +1996,7 @@
         <v>0.54</v>
       </c>
       <c r="D69" t="n">
-        <v>14.100817</v>
+        <v>14.237057</v>
       </c>
       <c r="E69" t="n">
         <v>0.0842</v>
@@ -1871,6 +2011,31 @@
           <t>3682.TW</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1885,7 +2050,7 @@
         <v>0.428</v>
       </c>
       <c r="D71" t="n">
-        <v>21.993126</v>
+        <v>21.821304</v>
       </c>
       <c r="E71" t="n">
         <v>0.07271</v>
@@ -1907,7 +2072,7 @@
         <v>0.871</v>
       </c>
       <c r="D72" t="n">
-        <v>19.258162</v>
+        <v>19.673592</v>
       </c>
       <c r="E72" t="n">
         <v>-0.08931</v>
@@ -1928,6 +2093,11 @@
       <c r="C73" t="n">
         <v>0.423</v>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
       <c r="E73" t="n">
         <v>0.09737999999999999</v>
       </c>
@@ -1941,6 +2111,31 @@
           <t>5904.TW</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1955,7 +2150,7 @@
         <v>0.527</v>
       </c>
       <c r="D75" t="n">
-        <v>7.239479</v>
+        <v>7.0891786</v>
       </c>
       <c r="E75" t="n">
         <v>0.07113</v>
@@ -1971,13 +2166,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50.68</v>
+        <v>50.64</v>
       </c>
       <c r="C76" t="n">
         <v>1.3</v>
       </c>
       <c r="D76" t="n">
-        <v>27.047915</v>
+        <v>26.564917</v>
       </c>
       <c r="E76" t="n">
         <v>0.16882</v>
@@ -1993,10 +2188,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>11.41</v>
+        <v>11.4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.553</v>
       </c>
       <c r="D77" t="n">
-        <v>12.440382</v>
+        <v>13.443983</v>
       </c>
       <c r="E77" t="n">
         <v>0.18556</v>
@@ -2018,7 +2216,7 @@
         <v>0.715</v>
       </c>
       <c r="D78" t="n">
-        <v>16.516762</v>
+        <v>16.35323</v>
       </c>
       <c r="E78" t="n">
         <v>0.18105</v>
@@ -2034,7 +2232,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5.46</v>
+        <v>5.44</v>
       </c>
       <c r="C79" t="n">
         <v>1.109</v>
@@ -2055,6 +2253,31 @@
           <t>4105.TW</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2068,6 +2291,11 @@
       <c r="C81" t="n">
         <v>0.595</v>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
       <c r="E81" t="n">
         <v>0.02555</v>
       </c>
@@ -2081,6 +2309,31 @@
           <t>6488.TW</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2095,7 +2348,7 @@
         <v>0.24</v>
       </c>
       <c r="D83" t="n">
-        <v>20.501043</v>
+        <v>20.292274</v>
       </c>
       <c r="E83" t="n">
         <v>0.039419997</v>
@@ -2113,8 +2366,13 @@
       <c r="B84" t="n">
         <v>5.13</v>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
       <c r="D84" t="n">
-        <v>16.036507</v>
+        <v>16.558018</v>
       </c>
       <c r="E84" t="n">
         <v>0.13857001</v>
@@ -2136,7 +2394,7 @@
         <v>0.871</v>
       </c>
       <c r="D85" t="n">
-        <v>12.187872</v>
+        <v>12.54459</v>
       </c>
       <c r="E85" t="n">
         <v>0.06397</v>
@@ -2151,6 +2409,31 @@
           <t>8299.TW</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2165,7 +2448,7 @@
         <v>1.433</v>
       </c>
       <c r="D87" t="n">
-        <v>15.949444</v>
+        <v>16.046791</v>
       </c>
       <c r="E87" t="n">
         <v>0.15132</v>
@@ -2180,6 +2463,31 @@
           <t>6121.TW</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2194,7 +2502,7 @@
         <v>0.838</v>
       </c>
       <c r="D89" t="n">
-        <v>23.88708</v>
+        <v>23.525154</v>
       </c>
       <c r="E89" t="n">
         <v>0.26875</v>
@@ -2216,7 +2524,7 @@
         <v>0.281</v>
       </c>
       <c r="D90" t="n">
-        <v>26.206898</v>
+        <v>25.991379</v>
       </c>
       <c r="E90" t="n">
         <v>0.10927</v>
@@ -2234,8 +2542,13 @@
       <c r="B91" t="n">
         <v>-0.1</v>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
       <c r="D91" t="n">
-        <v>17.5</v>
+        <v>17.757008</v>
       </c>
       <c r="E91" t="n">
         <v>-0.00299</v>
@@ -2250,6 +2563,11 @@
           <t>4736.TW</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
       <c r="C92" t="n">
         <v>0.161</v>
       </c>
@@ -2267,6 +2585,31 @@
       <c r="A93" t="inlineStr">
         <is>
           <t>4743.TW</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NaN</t>
         </is>
       </c>
     </row>

--- a/taiex_mid100_stock_data.xlsx
+++ b/taiex_mid100_stock_data.xlsx
@@ -460,13 +460,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.57</v>
+        <v>33.61</v>
       </c>
       <c r="C2" t="n">
         <v>1.24</v>
       </c>
       <c r="D2" t="n">
-        <v>17.240673</v>
+        <v>17.93768</v>
       </c>
       <c r="E2" t="n">
         <v>0.25332</v>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.74</v>
+        <v>10.73</v>
       </c>
       <c r="C3" t="n">
         <v>0.616</v>
       </c>
       <c r="D3" t="n">
-        <v>11.814946</v>
+        <v>12.313167</v>
       </c>
       <c r="E3" t="n">
         <v>0.100839995</v>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.6</v>
+        <v>57.59</v>
       </c>
       <c r="C4" t="n">
         <v>1.144</v>
       </c>
       <c r="D4" t="n">
-        <v>16.812134</v>
+        <v>17.241379</v>
       </c>
       <c r="E4" t="n">
         <v>0.25763</v>
@@ -532,7 +532,7 @@
         <v>0.532</v>
       </c>
       <c r="D5" t="n">
-        <v>20.80247</v>
+        <v>20.679012</v>
       </c>
       <c r="E5" t="n">
         <v>0.015310001</v>
@@ -554,7 +554,7 @@
         <v>0.647</v>
       </c>
       <c r="D6" t="n">
-        <v>11.146882</v>
+        <v>11.026157</v>
       </c>
       <c r="E6" t="n">
         <v>0.072909996</v>
@@ -576,7 +576,7 @@
         <v>0.73</v>
       </c>
       <c r="D7" t="n">
-        <v>11.480315</v>
+        <v>11.417323</v>
       </c>
       <c r="E7" t="n">
         <v>0.09357</v>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.72</v>
+        <v>153.87</v>
       </c>
       <c r="C8" t="n">
         <v>0.919</v>
       </c>
       <c r="D8" t="n">
-        <v>13.173511</v>
+        <v>12.99549</v>
       </c>
       <c r="E8" t="n">
         <v>0.12922</v>
@@ -620,7 +620,7 @@
         <v>1.18</v>
       </c>
       <c r="D9" t="n">
-        <v>11.742919</v>
+        <v>12.200436</v>
       </c>
       <c r="E9" t="n">
         <v>0.15123</v>
@@ -642,7 +642,7 @@
         <v>0.386</v>
       </c>
       <c r="D10" t="n">
-        <v>14.408602</v>
+        <v>14.193548</v>
       </c>
       <c r="E10" t="n">
         <v>0.07664</v>
@@ -664,7 +664,7 @@
         <v>0.475</v>
       </c>
       <c r="D11" t="n">
-        <v>17.350428</v>
+        <v>17.136751</v>
       </c>
       <c r="E11" t="n">
         <v>0.10461</v>
@@ -686,7 +686,7 @@
         <v>0.649</v>
       </c>
       <c r="D12" t="n">
-        <v>11.833856</v>
+        <v>11.912226</v>
       </c>
       <c r="E12" t="n">
         <v>0.13418001</v>
@@ -708,7 +708,7 @@
         <v>0.736</v>
       </c>
       <c r="D13" t="n">
-        <v>12.923387</v>
+        <v>12.848838</v>
       </c>
       <c r="E13" t="n">
         <v>0.09741</v>
@@ -730,7 +730,7 @@
         <v>0.429</v>
       </c>
       <c r="D14" t="n">
-        <v>15.771605</v>
+        <v>15.740741</v>
       </c>
       <c r="E14" t="n">
         <v>0.11012</v>
@@ -752,7 +752,7 @@
         <v>0.749</v>
       </c>
       <c r="D15" t="n">
-        <v>27.065216</v>
+        <v>26.25</v>
       </c>
       <c r="E15" t="n">
         <v>0.01351</v>
@@ -774,7 +774,7 @@
         <v>0.637</v>
       </c>
       <c r="D16" t="n">
-        <v>18.945578</v>
+        <v>18.265306</v>
       </c>
       <c r="E16" t="n">
         <v>0.02027</v>
@@ -796,7 +796,7 @@
         <v>0.412</v>
       </c>
       <c r="D17" t="n">
-        <v>17.286585</v>
+        <v>17.65244</v>
       </c>
       <c r="E17" t="n">
         <v>0.09506000000000001</v>
@@ -812,19 +812,21 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.41</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>9.964788</v>
+        <v>9.859156</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08033</v>
+        <v>0.09032999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00527</v>
+        <v>0.00642</v>
       </c>
     </row>
     <row r="19">
@@ -840,7 +842,7 @@
         <v>0.455</v>
       </c>
       <c r="D19" t="n">
-        <v>18.259493</v>
+        <v>18.13291</v>
       </c>
       <c r="E19" t="n">
         <v>0.09747</v>
@@ -862,7 +864,7 @@
         <v>0.361</v>
       </c>
       <c r="D20" t="n">
-        <v>19.80057</v>
+        <v>19.544159</v>
       </c>
       <c r="E20" t="n">
         <v>0.0696</v>
@@ -878,13 +880,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.56</v>
+        <v>5.58</v>
       </c>
       <c r="C21" t="n">
         <v>0.904</v>
       </c>
       <c r="D21" t="n">
-        <v>19.758577</v>
+        <v>20.038168</v>
       </c>
       <c r="E21" t="n">
         <v>0.21834</v>
@@ -900,13 +902,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.029999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="C22" t="n">
         <v>1.093</v>
       </c>
       <c r="D22" t="n">
-        <v>12.280702</v>
+        <v>12.878788</v>
       </c>
       <c r="E22" t="n">
         <v>0.111049995</v>
@@ -922,13 +924,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.92</v>
+        <v>30.9</v>
       </c>
       <c r="C23" t="n">
         <v>0.5590000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>13.643973</v>
+        <v>14.207651</v>
       </c>
       <c r="E23" t="n">
         <v>0.09896000000000001</v>
@@ -950,7 +952,7 @@
         <v>0.255</v>
       </c>
       <c r="D24" t="n">
-        <v>18.333332</v>
+        <v>18.703703</v>
       </c>
       <c r="E24" t="n">
         <v>0.1517</v>
@@ -966,13 +968,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.73</v>
+        <v>4.72</v>
       </c>
       <c r="C25" t="n">
         <v>0.06</v>
       </c>
       <c r="D25" t="n">
-        <v>24.901575</v>
+        <v>25</v>
       </c>
       <c r="E25" t="n">
         <v>0.09353</v>
@@ -988,13 +990,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22.14</v>
+        <v>22.15</v>
       </c>
       <c r="C26" t="n">
         <v>1.565</v>
       </c>
       <c r="D26" t="n">
-        <v>20.53307</v>
+        <v>20.631786</v>
       </c>
       <c r="E26" t="n">
         <v>0.09508</v>
@@ -1016,7 +1018,7 @@
         <v>0.547</v>
       </c>
       <c r="D27" t="n">
-        <v>23.556484</v>
+        <v>22.92887</v>
       </c>
       <c r="E27" t="n">
         <v>0.02772</v>
@@ -1032,13 +1034,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.37</v>
+        <v>12.35</v>
       </c>
       <c r="C28" t="n">
         <v>1.139</v>
       </c>
       <c r="D28" t="n">
-        <v>19.893816</v>
+        <v>20.59375</v>
       </c>
       <c r="E28" t="n">
         <v>0.15441</v>
@@ -1060,7 +1062,7 @@
         <v>0.443</v>
       </c>
       <c r="D29" t="n">
-        <v>13.450292</v>
+        <v>13.304093</v>
       </c>
       <c r="E29" t="n">
         <v>0.11545999</v>
@@ -1082,7 +1084,7 @@
         <v>0.426</v>
       </c>
       <c r="D30" t="n">
-        <v>16.945814</v>
+        <v>16.576355</v>
       </c>
       <c r="E30" t="n">
         <v>0.05396</v>
@@ -1104,7 +1106,7 @@
         <v>1.422</v>
       </c>
       <c r="D31" t="n">
-        <v>1720.0001</v>
+        <v>1777.5</v>
       </c>
       <c r="E31" t="n">
         <v>0.00434</v>
@@ -1120,13 +1122,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10.3</v>
+        <v>10.32</v>
       </c>
       <c r="C32" t="n">
         <v>0.08699999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>22.47557</v>
+        <v>22.190554</v>
       </c>
       <c r="E32" t="n">
         <v>0.25333</v>
@@ -1142,13 +1144,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41.78</v>
+        <v>41.79</v>
       </c>
       <c r="C33" t="n">
         <v>1.592</v>
       </c>
       <c r="D33" t="n">
-        <v>10.875195</v>
+        <v>11.013292</v>
       </c>
       <c r="E33" t="n">
         <v>0.13898</v>
@@ -1164,13 +1166,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.45</v>
+        <v>42.49</v>
       </c>
       <c r="C34" t="n">
         <v>0.838</v>
       </c>
       <c r="D34" t="n">
-        <v>13.138218</v>
+        <v>12.945951</v>
       </c>
       <c r="E34" t="n">
         <v>0.31234</v>
@@ -1192,7 +1194,7 @@
         <v>0.753</v>
       </c>
       <c r="D35" t="n">
-        <v>21.832579</v>
+        <v>24.117647</v>
       </c>
       <c r="E35" t="n">
         <v>0.08621999599999999</v>
@@ -1214,7 +1216,7 @@
         <v>1.269</v>
       </c>
       <c r="D36" t="n">
-        <v>23.552631</v>
+        <v>23.684212</v>
       </c>
       <c r="E36" t="n">
         <v>-0.06415999999999999</v>
@@ -1236,7 +1238,7 @@
         <v>1.667</v>
       </c>
       <c r="D37" t="n">
-        <v>51.36691</v>
+        <v>51.294968</v>
       </c>
       <c r="E37" t="n">
         <v>0.034730002</v>
@@ -1252,13 +1254,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="C38" t="n">
         <v>1.638</v>
       </c>
       <c r="D38" t="n">
-        <v>32.48062</v>
+        <v>36.740967</v>
       </c>
       <c r="E38" t="n">
         <v>0.01709</v>
@@ -1306,13 +1308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="C40" t="n">
         <v>0.648</v>
       </c>
       <c r="D40" t="n">
-        <v>17.080557</v>
+        <v>17.201696</v>
       </c>
       <c r="E40" t="n">
         <v>0.27445</v>
@@ -1334,7 +1336,7 @@
         <v>0.555</v>
       </c>
       <c r="D41" t="n">
-        <v>20.21212</v>
+        <v>20.60606</v>
       </c>
       <c r="E41" t="n">
         <v>0.041929998</v>
@@ -1350,13 +1352,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>38.49</v>
+        <v>38.5</v>
       </c>
       <c r="C42" t="n">
         <v>1.071</v>
       </c>
       <c r="D42" t="n">
-        <v>14.574314</v>
+        <v>15.09069</v>
       </c>
       <c r="E42" t="n">
         <v>0.32799998</v>
@@ -1378,7 +1380,7 @@
         <v>0.879</v>
       </c>
       <c r="D43" t="n">
-        <v>12.945915</v>
+        <v>13.118527</v>
       </c>
       <c r="E43" t="n">
         <v>0.17141001</v>
@@ -1400,7 +1402,7 @@
         <v>0.874</v>
       </c>
       <c r="D44" t="n">
-        <v>12.74738</v>
+        <v>13.445867</v>
       </c>
       <c r="E44" t="n">
         <v>0.06111</v>
@@ -1448,13 +1450,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.79</v>
+        <v>35.87</v>
       </c>
       <c r="C46" t="n">
         <v>1.068</v>
       </c>
       <c r="D46" t="n">
-        <v>23.834524</v>
+        <v>23.51953</v>
       </c>
       <c r="E46" t="n">
         <v>0.18011999</v>
@@ -1476,7 +1478,7 @@
         <v>0.855</v>
       </c>
       <c r="D47" t="n">
-        <v>18.780489</v>
+        <v>18.121952</v>
       </c>
       <c r="E47" t="n">
         <v>0.03066</v>
@@ -1530,7 +1532,7 @@
         <v>-0.002</v>
       </c>
       <c r="D49" t="n">
-        <v>22.87671</v>
+        <v>23.09589</v>
       </c>
       <c r="E49" t="n">
         <v>0.14232999</v>
@@ -1546,13 +1548,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>20.18</v>
+        <v>20.19</v>
       </c>
       <c r="C50" t="n">
         <v>1.049</v>
       </c>
       <c r="D50" t="n">
-        <v>15.881116</v>
+        <v>16.181326</v>
       </c>
       <c r="E50" t="n">
         <v>0.21922001</v>
@@ -1568,13 +1570,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5.16</v>
+        <v>5.15</v>
       </c>
       <c r="C51" t="n">
         <v>1.52</v>
       </c>
       <c r="D51" t="n">
-        <v>16.224579</v>
+        <v>16.710875</v>
       </c>
       <c r="E51" t="n">
         <v>0.07468</v>
@@ -1596,7 +1598,7 @@
         <v>1.572</v>
       </c>
       <c r="D52" t="n">
-        <v>12.380953</v>
+        <v>12.993197</v>
       </c>
       <c r="E52" t="n">
         <v>0.10614</v>
@@ -1618,7 +1620,7 @@
         <v>0.272</v>
       </c>
       <c r="D53" t="n">
-        <v>15.284405</v>
+        <v>15.174312</v>
       </c>
       <c r="E53" t="n">
         <v>0.11663</v>
@@ -1672,7 +1674,7 @@
         <v>0.806</v>
       </c>
       <c r="D55" t="n">
-        <v>-40.28302</v>
+        <v>-40.09434</v>
       </c>
       <c r="E55" t="n">
         <v>-0.14907</v>
@@ -1694,7 +1696,7 @@
         <v>1.099</v>
       </c>
       <c r="D56" t="n">
-        <v>37.407406</v>
+        <v>37.59259</v>
       </c>
       <c r="E56" t="n">
         <v>-0.10476</v>
@@ -1710,13 +1712,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>15.2</v>
+        <v>15.19</v>
       </c>
       <c r="C57" t="n">
         <v>0.79</v>
       </c>
       <c r="D57" t="n">
-        <v>23.963005</v>
+        <v>24.103138</v>
       </c>
       <c r="E57" t="n">
         <v>0.3321</v>
@@ -1738,7 +1740,7 @@
         <v>0.628</v>
       </c>
       <c r="D58" t="n">
-        <v>13.8938055</v>
+        <v>13.938053</v>
       </c>
       <c r="E58" t="n">
         <v>0.14958</v>
@@ -1754,13 +1756,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>16.23</v>
+        <v>16.24</v>
       </c>
       <c r="C59" t="n">
         <v>0.374</v>
       </c>
       <c r="D59" t="n">
-        <v>20.610058</v>
+        <v>21.022259</v>
       </c>
       <c r="E59" t="n">
         <v>0.34539002</v>
@@ -1782,7 +1784,7 @@
         <v>0.862</v>
       </c>
       <c r="D60" t="n">
-        <v>16.8239</v>
+        <v>17.243187</v>
       </c>
       <c r="E60" t="n">
         <v>0.15709</v>
@@ -1798,13 +1800,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>39.07</v>
+        <v>39.08</v>
       </c>
       <c r="C61" t="n">
         <v>0.972</v>
       </c>
       <c r="D61" t="n">
-        <v>20.628792</v>
+        <v>20.959734</v>
       </c>
       <c r="E61" t="n">
         <v>0.1277</v>
@@ -1826,7 +1828,7 @@
         <v>0.836</v>
       </c>
       <c r="D62" t="n">
-        <v>15.566188</v>
+        <v>15.757576</v>
       </c>
       <c r="E62" t="n">
         <v>0.07906000000000001</v>
@@ -1848,7 +1850,7 @@
         <v>0.846</v>
       </c>
       <c r="D63" t="n">
-        <v>24.864864</v>
+        <v>24.819818</v>
       </c>
       <c r="E63" t="n">
         <v>0.03644</v>
@@ -1870,7 +1872,7 @@
         <v>1.152</v>
       </c>
       <c r="D64" t="n">
-        <v>6.85719</v>
+        <v>6.6436725</v>
       </c>
       <c r="E64" t="n">
         <v>0.74744004</v>
@@ -1912,15 +1914,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+        <v>11.45</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.779</v>
       </c>
       <c r="D66" t="n">
-        <v>12.701318</v>
+        <v>12.554905</v>
       </c>
       <c r="E66" t="n">
         <v>0.14667</v>
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>16.65</v>
+        <v>16.68</v>
       </c>
       <c r="C68" t="n">
         <v>1.021</v>
       </c>
       <c r="D68" t="n">
-        <v>17.246483</v>
+        <v>17.635084</v>
       </c>
       <c r="E68" t="n">
         <v>0.25742</v>
@@ -1996,7 +1996,7 @@
         <v>0.54</v>
       </c>
       <c r="D69" t="n">
-        <v>14.237057</v>
+        <v>14.470108</v>
       </c>
       <c r="E69" t="n">
         <v>0.0842</v>
@@ -2050,7 +2050,7 @@
         <v>0.428</v>
       </c>
       <c r="D71" t="n">
-        <v>21.821304</v>
+        <v>21.683847</v>
       </c>
       <c r="E71" t="n">
         <v>0.07271</v>
@@ -2072,7 +2072,7 @@
         <v>0.871</v>
       </c>
       <c r="D72" t="n">
-        <v>19.673592</v>
+        <v>19.762611</v>
       </c>
       <c r="E72" t="n">
         <v>-0.08931</v>
@@ -2090,8 +2090,10 @@
       <c r="B73" t="n">
         <v>4.68</v>
       </c>
-      <c r="C73" t="n">
-        <v>0.423</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2099,10 +2101,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.09737999999999999</v>
+        <v>0.12862</v>
       </c>
       <c r="F73" t="n">
-        <v>0.05954</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="74">
@@ -2150,7 +2152,7 @@
         <v>0.527</v>
       </c>
       <c r="D75" t="n">
-        <v>7.0891786</v>
+        <v>6.963928</v>
       </c>
       <c r="E75" t="n">
         <v>0.07113</v>
@@ -2166,13 +2168,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50.64</v>
+        <v>50.6</v>
       </c>
       <c r="C76" t="n">
         <v>1.3</v>
       </c>
       <c r="D76" t="n">
-        <v>26.564917</v>
+        <v>26.275116</v>
       </c>
       <c r="E76" t="n">
         <v>0.16882</v>
@@ -2188,13 +2190,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>11.4</v>
+        <v>11.42</v>
       </c>
       <c r="C77" t="n">
         <v>0.553</v>
       </c>
       <c r="D77" t="n">
-        <v>13.443983</v>
+        <v>13.4854765</v>
       </c>
       <c r="E77" t="n">
         <v>0.18556</v>
@@ -2216,7 +2218,7 @@
         <v>0.715</v>
       </c>
       <c r="D78" t="n">
-        <v>16.35323</v>
+        <v>16.148815</v>
       </c>
       <c r="E78" t="n">
         <v>0.18105</v>
@@ -2232,13 +2234,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5.44</v>
+        <v>5.45</v>
       </c>
       <c r="C79" t="n">
         <v>1.109</v>
       </c>
       <c r="D79" t="n">
-        <v>15.364852</v>
+        <v>15.519014</v>
       </c>
       <c r="E79" t="n">
         <v>0.04639</v>
@@ -2348,7 +2350,7 @@
         <v>0.24</v>
       </c>
       <c r="D83" t="n">
-        <v>20.292274</v>
+        <v>19.853863</v>
       </c>
       <c r="E83" t="n">
         <v>0.039419997</v>
@@ -2363,22 +2365,30 @@
           <t>4919.TW</t>
         </is>
       </c>
-      <c r="B84" t="n">
-        <v>5.13</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>NaN</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>16.558018</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.13857001</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.03233</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -2394,7 +2404,7 @@
         <v>0.871</v>
       </c>
       <c r="D85" t="n">
-        <v>12.54459</v>
+        <v>13.555291</v>
       </c>
       <c r="E85" t="n">
         <v>0.06397</v>
@@ -2448,7 +2458,7 @@
         <v>1.433</v>
       </c>
       <c r="D87" t="n">
-        <v>16.046791</v>
+        <v>15.986802</v>
       </c>
       <c r="E87" t="n">
         <v>0.15132</v>
@@ -2496,19 +2506,21 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.838</v>
+        <v>14.85</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
       <c r="D89" t="n">
-        <v>23.525154</v>
+        <v>25.624323</v>
       </c>
       <c r="E89" t="n">
-        <v>0.26875</v>
+        <v>0.30150998</v>
       </c>
       <c r="F89" t="n">
-        <v>0.070199996</v>
+        <v>0.07399</v>
       </c>
     </row>
     <row r="90">
@@ -2524,7 +2536,7 @@
         <v>0.281</v>
       </c>
       <c r="D90" t="n">
-        <v>25.991379</v>
+        <v>25.948277</v>
       </c>
       <c r="E90" t="n">
         <v>0.10927</v>
@@ -2548,7 +2560,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>17.757008</v>
+        <v>17.359814</v>
       </c>
       <c r="E91" t="n">
         <v>-0.00299</v>
@@ -2572,7 +2584,7 @@
         <v>0.161</v>
       </c>
       <c r="D92" t="n">
-        <v>14.43662</v>
+        <v>14.348592</v>
       </c>
       <c r="E92" t="n">
         <v>0.10937</v>

--- a/taiex_mid100_stock_data.xlsx
+++ b/taiex_mid100_stock_data.xlsx
@@ -460,13 +460,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.61</v>
+        <v>33.6</v>
       </c>
       <c r="C2" t="n">
         <v>1.24</v>
       </c>
       <c r="D2" t="n">
-        <v>17.93768</v>
+        <v>17.773678</v>
       </c>
       <c r="E2" t="n">
         <v>0.25332</v>
@@ -488,7 +488,7 @@
         <v>0.616</v>
       </c>
       <c r="D3" t="n">
-        <v>12.313167</v>
+        <v>12.5266905</v>
       </c>
       <c r="E3" t="n">
         <v>0.100839995</v>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.59</v>
+        <v>57.6</v>
       </c>
       <c r="C4" t="n">
         <v>1.144</v>
       </c>
       <c r="D4" t="n">
-        <v>17.241379</v>
+        <v>17.098297</v>
       </c>
       <c r="E4" t="n">
         <v>0.25763</v>
@@ -532,7 +532,7 @@
         <v>0.532</v>
       </c>
       <c r="D5" t="n">
-        <v>20.679012</v>
+        <v>20.462963</v>
       </c>
       <c r="E5" t="n">
         <v>0.015310001</v>
@@ -554,7 +554,7 @@
         <v>0.647</v>
       </c>
       <c r="D6" t="n">
-        <v>11.026157</v>
+        <v>11.046278</v>
       </c>
       <c r="E6" t="n">
         <v>0.072909996</v>
@@ -576,7 +576,7 @@
         <v>0.73</v>
       </c>
       <c r="D7" t="n">
-        <v>11.417323</v>
+        <v>11.006006</v>
       </c>
       <c r="E7" t="n">
         <v>0.09357</v>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.87</v>
+        <v>153.74</v>
       </c>
       <c r="C8" t="n">
         <v>0.919</v>
       </c>
       <c r="D8" t="n">
-        <v>12.99549</v>
+        <v>12.876809</v>
       </c>
       <c r="E8" t="n">
         <v>0.12922</v>
@@ -620,7 +620,7 @@
         <v>1.18</v>
       </c>
       <c r="D9" t="n">
-        <v>12.200436</v>
+        <v>11.895424</v>
       </c>
       <c r="E9" t="n">
         <v>0.15123</v>
@@ -642,7 +642,7 @@
         <v>0.386</v>
       </c>
       <c r="D10" t="n">
-        <v>14.193548</v>
+        <v>14.086021</v>
       </c>
       <c r="E10" t="n">
         <v>0.07664</v>
@@ -664,7 +664,7 @@
         <v>0.475</v>
       </c>
       <c r="D11" t="n">
-        <v>17.136751</v>
+        <v>17.094017</v>
       </c>
       <c r="E11" t="n">
         <v>0.10461</v>
@@ -686,7 +686,7 @@
         <v>0.649</v>
       </c>
       <c r="D12" t="n">
-        <v>11.912226</v>
+        <v>11.61442</v>
       </c>
       <c r="E12" t="n">
         <v>0.13418001</v>
@@ -702,19 +702,21 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.736</v>
+        <v>2.37</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>12.848838</v>
+        <v>12.548263</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09741</v>
+        <v>0.105170004</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0057599996</v>
+        <v>0.00464</v>
       </c>
     </row>
     <row r="14">
@@ -730,7 +732,7 @@
         <v>0.429</v>
       </c>
       <c r="D14" t="n">
-        <v>15.740741</v>
+        <v>15.679012</v>
       </c>
       <c r="E14" t="n">
         <v>0.11012</v>
@@ -752,7 +754,7 @@
         <v>0.749</v>
       </c>
       <c r="D15" t="n">
-        <v>26.25</v>
+        <v>26.086956</v>
       </c>
       <c r="E15" t="n">
         <v>0.01351</v>
@@ -774,7 +776,7 @@
         <v>0.637</v>
       </c>
       <c r="D16" t="n">
-        <v>18.265306</v>
+        <v>18.061224</v>
       </c>
       <c r="E16" t="n">
         <v>0.02027</v>
@@ -796,7 +798,7 @@
         <v>0.412</v>
       </c>
       <c r="D17" t="n">
-        <v>17.65244</v>
+        <v>17.195122</v>
       </c>
       <c r="E17" t="n">
         <v>0.09506000000000001</v>
@@ -842,7 +844,7 @@
         <v>0.455</v>
       </c>
       <c r="D19" t="n">
-        <v>18.13291</v>
+        <v>17.911392</v>
       </c>
       <c r="E19" t="n">
         <v>0.09747</v>
@@ -864,7 +866,7 @@
         <v>0.361</v>
       </c>
       <c r="D20" t="n">
-        <v>19.544159</v>
+        <v>19.45869</v>
       </c>
       <c r="E20" t="n">
         <v>0.0696</v>
@@ -886,7 +888,7 @@
         <v>0.904</v>
       </c>
       <c r="D21" t="n">
-        <v>20.038168</v>
+        <v>19.656488</v>
       </c>
       <c r="E21" t="n">
         <v>0.21834</v>
@@ -902,13 +904,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.02</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C22" t="n">
         <v>1.093</v>
       </c>
       <c r="D22" t="n">
-        <v>12.878788</v>
+        <v>12.719298</v>
       </c>
       <c r="E22" t="n">
         <v>0.111049995</v>
@@ -924,13 +926,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.9</v>
+        <v>30.94</v>
       </c>
       <c r="C23" t="n">
         <v>0.5590000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>14.207651</v>
+        <v>14.180328</v>
       </c>
       <c r="E23" t="n">
         <v>0.09896000000000001</v>
@@ -952,7 +954,7 @@
         <v>0.255</v>
       </c>
       <c r="D24" t="n">
-        <v>18.703703</v>
+        <v>18.310184</v>
       </c>
       <c r="E24" t="n">
         <v>0.1517</v>
@@ -996,7 +998,7 @@
         <v>1.565</v>
       </c>
       <c r="D26" t="n">
-        <v>20.631786</v>
+        <v>21.668312</v>
       </c>
       <c r="E26" t="n">
         <v>0.09508</v>
@@ -1018,7 +1020,7 @@
         <v>0.547</v>
       </c>
       <c r="D27" t="n">
-        <v>22.92887</v>
+        <v>22.677824</v>
       </c>
       <c r="E27" t="n">
         <v>0.02772</v>
@@ -1034,13 +1036,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.35</v>
+        <v>12.36</v>
       </c>
       <c r="C28" t="n">
         <v>1.139</v>
       </c>
       <c r="D28" t="n">
-        <v>20.59375</v>
+        <v>20.525658</v>
       </c>
       <c r="E28" t="n">
         <v>0.15441</v>
@@ -1062,7 +1064,7 @@
         <v>0.443</v>
       </c>
       <c r="D29" t="n">
-        <v>13.304093</v>
+        <v>13.096591</v>
       </c>
       <c r="E29" t="n">
         <v>0.11545999</v>
@@ -1106,7 +1108,7 @@
         <v>1.422</v>
       </c>
       <c r="D31" t="n">
-        <v>1777.5</v>
+        <v>1872.5001</v>
       </c>
       <c r="E31" t="n">
         <v>0.00434</v>
@@ -1122,13 +1124,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10.32</v>
+        <v>10.3</v>
       </c>
       <c r="C32" t="n">
         <v>0.08699999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>22.190554</v>
+        <v>22.068405</v>
       </c>
       <c r="E32" t="n">
         <v>0.25333</v>
@@ -1150,7 +1152,7 @@
         <v>1.592</v>
       </c>
       <c r="D33" t="n">
-        <v>11.013292</v>
+        <v>11.2377</v>
       </c>
       <c r="E33" t="n">
         <v>0.13898</v>
@@ -1166,13 +1168,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.49</v>
+        <v>42.48</v>
       </c>
       <c r="C34" t="n">
         <v>0.838</v>
       </c>
       <c r="D34" t="n">
-        <v>12.945951</v>
+        <v>12.924588</v>
       </c>
       <c r="E34" t="n">
         <v>0.31234</v>
@@ -1194,7 +1196,7 @@
         <v>0.753</v>
       </c>
       <c r="D35" t="n">
-        <v>24.117647</v>
+        <v>25.669643</v>
       </c>
       <c r="E35" t="n">
         <v>0.08621999599999999</v>
@@ -1216,7 +1218,7 @@
         <v>1.269</v>
       </c>
       <c r="D36" t="n">
-        <v>23.684212</v>
+        <v>23.94737</v>
       </c>
       <c r="E36" t="n">
         <v>-0.06415999999999999</v>
@@ -1238,7 +1240,7 @@
         <v>1.667</v>
       </c>
       <c r="D37" t="n">
-        <v>51.294968</v>
+        <v>52.877697</v>
       </c>
       <c r="E37" t="n">
         <v>0.034730002</v>
@@ -1254,13 +1256,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="C38" t="n">
         <v>1.638</v>
       </c>
       <c r="D38" t="n">
-        <v>36.740967</v>
+        <v>36.62567</v>
       </c>
       <c r="E38" t="n">
         <v>0.01709</v>
@@ -1308,13 +1310,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="C40" t="n">
         <v>0.648</v>
       </c>
       <c r="D40" t="n">
-        <v>17.201696</v>
+        <v>17.353119</v>
       </c>
       <c r="E40" t="n">
         <v>0.27445</v>
@@ -1336,7 +1338,7 @@
         <v>0.555</v>
       </c>
       <c r="D41" t="n">
-        <v>20.60606</v>
+        <v>20.636364</v>
       </c>
       <c r="E41" t="n">
         <v>0.041929998</v>
@@ -1358,7 +1360,7 @@
         <v>1.071</v>
       </c>
       <c r="D42" t="n">
-        <v>15.09069</v>
+        <v>14.752116</v>
       </c>
       <c r="E42" t="n">
         <v>0.32799998</v>
@@ -1380,7 +1382,7 @@
         <v>0.879</v>
       </c>
       <c r="D43" t="n">
-        <v>13.118527</v>
+        <v>13.233603</v>
       </c>
       <c r="E43" t="n">
         <v>0.17141001</v>
@@ -1402,7 +1404,7 @@
         <v>0.874</v>
       </c>
       <c r="D44" t="n">
-        <v>13.445867</v>
+        <v>13.38766</v>
       </c>
       <c r="E44" t="n">
         <v>0.06111</v>
@@ -1450,13 +1452,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.87</v>
+        <v>35.84</v>
       </c>
       <c r="C46" t="n">
         <v>1.068</v>
       </c>
       <c r="D46" t="n">
-        <v>23.51953</v>
+        <v>23.204536</v>
       </c>
       <c r="E46" t="n">
         <v>0.18011999</v>
@@ -1478,7 +1480,7 @@
         <v>0.855</v>
       </c>
       <c r="D47" t="n">
-        <v>18.121952</v>
+        <v>18.04878</v>
       </c>
       <c r="E47" t="n">
         <v>0.03066</v>
@@ -1532,7 +1534,7 @@
         <v>-0.002</v>
       </c>
       <c r="D49" t="n">
-        <v>23.09589</v>
+        <v>23.013699</v>
       </c>
       <c r="E49" t="n">
         <v>0.14232999</v>
@@ -1548,13 +1550,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>20.19</v>
+        <v>20.21</v>
       </c>
       <c r="C50" t="n">
         <v>1.049</v>
       </c>
       <c r="D50" t="n">
-        <v>16.181326</v>
+        <v>15.851095</v>
       </c>
       <c r="E50" t="n">
         <v>0.21922001</v>
@@ -1570,13 +1572,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5.15</v>
+        <v>5.16</v>
       </c>
       <c r="C51" t="n">
         <v>1.52</v>
       </c>
       <c r="D51" t="n">
-        <v>16.710875</v>
+        <v>16.445623</v>
       </c>
       <c r="E51" t="n">
         <v>0.07468</v>
@@ -1592,13 +1594,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="C52" t="n">
         <v>1.572</v>
       </c>
       <c r="D52" t="n">
-        <v>12.993197</v>
+        <v>12.857143</v>
       </c>
       <c r="E52" t="n">
         <v>0.10614</v>
@@ -1620,7 +1622,7 @@
         <v>0.272</v>
       </c>
       <c r="D53" t="n">
-        <v>15.174312</v>
+        <v>15.302753</v>
       </c>
       <c r="E53" t="n">
         <v>0.11663</v>
@@ -1674,7 +1676,7 @@
         <v>0.806</v>
       </c>
       <c r="D55" t="n">
-        <v>-40.09434</v>
+        <v>-39.66981</v>
       </c>
       <c r="E55" t="n">
         <v>-0.14907</v>
@@ -1696,7 +1698,7 @@
         <v>1.099</v>
       </c>
       <c r="D56" t="n">
-        <v>37.59259</v>
+        <v>37.777775</v>
       </c>
       <c r="E56" t="n">
         <v>-0.10476</v>
@@ -1712,13 +1714,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>15.19</v>
+        <v>15.18</v>
       </c>
       <c r="C57" t="n">
         <v>0.79</v>
       </c>
       <c r="D57" t="n">
-        <v>24.103138</v>
+        <v>23.963005</v>
       </c>
       <c r="E57" t="n">
         <v>0.3321</v>
@@ -1740,7 +1742,7 @@
         <v>0.628</v>
       </c>
       <c r="D58" t="n">
-        <v>13.938053</v>
+        <v>14.159292</v>
       </c>
       <c r="E58" t="n">
         <v>0.14958</v>
@@ -1756,13 +1758,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>16.24</v>
+        <v>16.22</v>
       </c>
       <c r="C59" t="n">
         <v>0.374</v>
       </c>
       <c r="D59" t="n">
-        <v>21.022259</v>
+        <v>21.236002</v>
       </c>
       <c r="E59" t="n">
         <v>0.34539002</v>
@@ -1784,7 +1786,7 @@
         <v>0.862</v>
       </c>
       <c r="D60" t="n">
-        <v>17.243187</v>
+        <v>17.190775</v>
       </c>
       <c r="E60" t="n">
         <v>0.15709</v>
@@ -1800,13 +1802,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>39.08</v>
+        <v>39.14</v>
       </c>
       <c r="C61" t="n">
         <v>0.972</v>
       </c>
       <c r="D61" t="n">
-        <v>20.959734</v>
+        <v>21.621622</v>
       </c>
       <c r="E61" t="n">
         <v>0.1277</v>
@@ -1828,7 +1830,7 @@
         <v>0.836</v>
       </c>
       <c r="D62" t="n">
-        <v>15.757576</v>
+        <v>15.869219</v>
       </c>
       <c r="E62" t="n">
         <v>0.07906000000000001</v>
@@ -1872,7 +1874,7 @@
         <v>1.152</v>
       </c>
       <c r="D64" t="n">
-        <v>6.6436725</v>
+        <v>6.692946</v>
       </c>
       <c r="E64" t="n">
         <v>0.74744004</v>
@@ -1914,13 +1916,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>11.45</v>
+        <v>11.46</v>
       </c>
       <c r="C66" t="n">
         <v>0.779</v>
       </c>
       <c r="D66" t="n">
-        <v>12.554905</v>
+        <v>12.664715</v>
       </c>
       <c r="E66" t="n">
         <v>0.14667</v>
@@ -1974,7 +1976,7 @@
         <v>1.021</v>
       </c>
       <c r="D68" t="n">
-        <v>17.635084</v>
+        <v>18.190298</v>
       </c>
       <c r="E68" t="n">
         <v>0.25742</v>
@@ -1996,7 +1998,7 @@
         <v>0.54</v>
       </c>
       <c r="D69" t="n">
-        <v>14.470108</v>
+        <v>14.402174</v>
       </c>
       <c r="E69" t="n">
         <v>0.0842</v>
@@ -2050,7 +2052,7 @@
         <v>0.428</v>
       </c>
       <c r="D71" t="n">
-        <v>21.683847</v>
+        <v>21.718212</v>
       </c>
       <c r="E71" t="n">
         <v>0.07271</v>
@@ -2072,7 +2074,7 @@
         <v>0.871</v>
       </c>
       <c r="D72" t="n">
-        <v>19.762611</v>
+        <v>19.525225</v>
       </c>
       <c r="E72" t="n">
         <v>-0.08931</v>
@@ -2095,10 +2097,8 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="D73" t="n">
+        <v>13.492753</v>
       </c>
       <c r="E73" t="n">
         <v>0.12862</v>
@@ -2146,13 +2146,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="C75" t="n">
         <v>0.527</v>
       </c>
       <c r="D75" t="n">
-        <v>6.963928</v>
+        <v>6.913828</v>
       </c>
       <c r="E75" t="n">
         <v>0.07113</v>
@@ -2168,13 +2168,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50.6</v>
+        <v>50.59</v>
       </c>
       <c r="C76" t="n">
         <v>1.3</v>
       </c>
       <c r="D76" t="n">
-        <v>26.275116</v>
+        <v>27.241114</v>
       </c>
       <c r="E76" t="n">
         <v>0.16882</v>
@@ -2190,13 +2190,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>11.42</v>
+        <v>11.41</v>
       </c>
       <c r="C77" t="n">
         <v>0.553</v>
       </c>
       <c r="D77" t="n">
-        <v>13.4854765</v>
+        <v>13.568464</v>
       </c>
       <c r="E77" t="n">
         <v>0.18556</v>
@@ -2212,13 +2212,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>13.8</v>
+        <v>13.81</v>
       </c>
       <c r="C78" t="n">
         <v>0.715</v>
       </c>
       <c r="D78" t="n">
-        <v>16.148815</v>
+        <v>16.107931</v>
       </c>
       <c r="E78" t="n">
         <v>0.18105</v>
@@ -2240,7 +2240,7 @@
         <v>1.109</v>
       </c>
       <c r="D79" t="n">
-        <v>15.519014</v>
+        <v>15.724564</v>
       </c>
       <c r="E79" t="n">
         <v>0.04639</v>
@@ -2350,7 +2350,7 @@
         <v>0.24</v>
       </c>
       <c r="D83" t="n">
-        <v>19.853863</v>
+        <v>19.916492</v>
       </c>
       <c r="E83" t="n">
         <v>0.039419997</v>
@@ -2365,30 +2365,22 @@
           <t>4919.TW</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="B84" t="n">
+        <v>5.13</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>NaN</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="D84" t="n">
+        <v>16.232073</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.13857001</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.03233</v>
       </c>
     </row>
     <row r="85">
@@ -2458,7 +2450,7 @@
         <v>1.433</v>
       </c>
       <c r="D87" t="n">
-        <v>15.986802</v>
+        <v>15.776845</v>
       </c>
       <c r="E87" t="n">
         <v>0.15132</v>
@@ -2506,7 +2498,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>14.85</v>
+        <v>14.87</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2514,7 +2506,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>25.624323</v>
+        <v>25.551937</v>
       </c>
       <c r="E89" t="n">
         <v>0.30150998</v>
@@ -2536,7 +2528,7 @@
         <v>0.281</v>
       </c>
       <c r="D90" t="n">
-        <v>25.948277</v>
+        <v>25.905172</v>
       </c>
       <c r="E90" t="n">
         <v>0.10927</v>
@@ -2560,7 +2552,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>17.359814</v>
+        <v>19.78261</v>
       </c>
       <c r="E91" t="n">
         <v>-0.00299</v>
@@ -2584,7 +2576,7 @@
         <v>0.161</v>
       </c>
       <c r="D92" t="n">
-        <v>14.348592</v>
+        <v>14.524649</v>
       </c>
       <c r="E92" t="n">
         <v>0.10937</v>

--- a/taiex_mid100_stock_data.xlsx
+++ b/taiex_mid100_stock_data.xlsx
@@ -1419,31 +1419,31 @@
         <v>0.22</v>
       </c>
       <c r="C27" t="n">
-        <v>0.638</v>
+        <v/>
       </c>
       <c r="D27" t="n">
         <v/>
       </c>
       <c r="E27" t="n">
-        <v>0.00587</v>
+        <v>0.008119998999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00207</v>
+        <v>-0.00119</v>
       </c>
       <c r="G27" t="n">
-        <v>0.27849</v>
+        <v>0.26816</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.01475</v>
+        <v>0.01129</v>
       </c>
       <c r="I27" t="n">
         <v>109.545456</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8662833</v>
+        <v>0.92853016</v>
       </c>
       <c r="K27" t="n">
-        <v>19.351</v>
+        <v>21.209</v>
       </c>
     </row>
     <row r="28">
@@ -1638,34 +1638,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.9</v>
+        <v>2.54</v>
       </c>
       <c r="C33" t="n">
-        <v>0.525</v>
+        <v/>
       </c>
       <c r="D33" t="n">
         <v>30.283018</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08726</v>
+        <v>0.1172</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03976</v>
+        <v>0.041890003</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2504</v>
+        <v>0.26518</v>
       </c>
       <c r="H33" t="n">
-        <v>0.122480005</v>
+        <v>0.12864</v>
       </c>
       <c r="I33" t="n">
-        <v>16.894735</v>
+        <v>12.6377945</v>
       </c>
       <c r="J33" t="n">
-        <v>1.427936</v>
+        <v>1.4117335</v>
       </c>
       <c r="K33" t="n">
-        <v>25.355</v>
+        <v>25.288</v>
       </c>
     </row>
     <row r="34">
@@ -7561,31 +7561,31 @@
         <v>-1.05</v>
       </c>
       <c r="C193" t="n">
-        <v>0.038</v>
+        <v/>
       </c>
       <c r="D193" t="n">
         <v/>
       </c>
       <c r="E193" t="n">
-        <v>-0.1658</v>
+        <v>-0.08966</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.02191</v>
+        <v>-0.021270001</v>
       </c>
       <c r="G193" t="n">
-        <v>0.00457</v>
+        <v>0.00396</v>
       </c>
       <c r="H193" t="n">
-        <v>-9.359540000000001</v>
+        <v>-7.9265504</v>
       </c>
       <c r="I193" t="n">
         <v/>
       </c>
       <c r="J193" t="n">
-        <v>1.7124219</v>
+        <v>2.413793</v>
       </c>
       <c r="K193" t="n">
-        <v>2.044</v>
+        <v>2.023</v>
       </c>
     </row>
     <row r="194">
@@ -10638,10 +10638,10 @@
         <v>21.478874</v>
       </c>
       <c r="E276" t="n">
-        <v/>
+        <v>0.20743999</v>
       </c>
       <c r="F276" t="n">
-        <v/>
+        <v>0.08785</v>
       </c>
       <c r="G276" t="n">
         <v>0.21691</v>
@@ -10653,10 +10653,10 @@
         <v>20.469799</v>
       </c>
       <c r="J276" t="n">
-        <v>3.5762446</v>
+        <v>3.654226</v>
       </c>
       <c r="K276" t="n">
-        <v>31.797</v>
+        <v>31.718</v>
       </c>
     </row>
     <row r="277">
@@ -16108,31 +16108,31 @@
         <v>8.33</v>
       </c>
       <c r="C424" t="n">
-        <v>0.183</v>
+        <v/>
       </c>
       <c r="D424" t="n">
         <v>15.3210125</v>
       </c>
       <c r="E424" t="n">
-        <v>0.17785999</v>
+        <v>0.11848</v>
       </c>
       <c r="F424" t="n">
-        <v>0.06386</v>
+        <v>0.040900003</v>
       </c>
       <c r="G424" t="n">
-        <v>0.33028</v>
+        <v>0.31089002</v>
       </c>
       <c r="H424" t="n">
-        <v>0.26223</v>
+        <v>-10.40036</v>
       </c>
       <c r="I424" t="n">
         <v>18.907562</v>
       </c>
       <c r="J424" t="n">
-        <v>2.0970922</v>
+        <v>2.353662</v>
       </c>
       <c r="K424" t="n">
-        <v>57.132</v>
+        <v>40.067</v>
       </c>
     </row>
     <row r="425">
@@ -34240,31 +34240,31 @@
         <v>2.27</v>
       </c>
       <c r="C914" t="n">
-        <v>0.849</v>
+        <v/>
       </c>
       <c r="D914" t="n">
         <v>3.7105072</v>
       </c>
       <c r="E914" t="n">
-        <v>0.12519</v>
+        <v>0.12788</v>
       </c>
       <c r="F914" t="n">
-        <v>0.03061</v>
+        <v>0.027709998</v>
       </c>
       <c r="G914" t="n">
-        <v>0.1874</v>
+        <v>0.18451999</v>
       </c>
       <c r="H914" t="n">
-        <v>0.10418</v>
+        <v>0.09639</v>
       </c>
       <c r="I914" t="n">
         <v>22.246696</v>
       </c>
       <c r="J914" t="n">
-        <v>2.2541623</v>
+        <v>2.0787024</v>
       </c>
       <c r="K914" t="n">
-        <v>24.463</v>
+        <v>24.442</v>
       </c>
     </row>
     <row r="915">
@@ -36830,7 +36830,7 @@
         <v>2.46</v>
       </c>
       <c r="C984" t="n">
-        <v/>
+        <v>0.173</v>
       </c>
       <c r="D984" t="n">
         <v>12.841824</v>
@@ -36851,10 +36851,10 @@
         <v>19.471544</v>
       </c>
       <c r="J984" t="n">
-        <v>2.235706</v>
+        <v>2.2589014</v>
       </c>
       <c r="K984" t="n">
-        <v>139.414</v>
+        <v>139.922</v>
       </c>
     </row>
     <row r="985">
